--- a/Outputs/PARX_22/0112_rerun_the_results.xlsx
+++ b/Outputs/PARX_22/0112_rerun_the_results.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -44,11 +44,73 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -58,6 +120,68 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -70,73 +194,73 @@
   <dimension ref="A1:E15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="13.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.15854011864152767</v>
+        <v>0.40677278717031251</v>
       </c>
       <c r="B1">
-        <v>0.064428927995117638</v>
+        <v>0.0038024078916069821</v>
       </c>
       <c r="C1">
-        <v>2.4606977575902191</v>
+        <v>106.97768329067961</v>
       </c>
       <c r="D1">
-        <v>0.097340851583012214</v>
+        <v>0.029507841587683572</v>
       </c>
       <c r="E1">
-        <v>1.6287110299864673</v>
+        <v>13.785243694004969</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.41501781476368416</v>
+        <v>0.64476633381687765</v>
       </c>
       <c r="B2">
-        <v>0.014982218358650847</v>
+        <v>0.00098261510997802045</v>
       </c>
       <c r="C2">
-        <v>27.700691902147437</v>
+        <v>656.17384392888084</v>
       </c>
       <c r="D2">
-        <v>0.035928121906568466</v>
+        <v>0.029260962752999463</v>
       </c>
       <c r="E2">
-        <v>11.55133618848609</v>
+        <v>22.035034843506111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.57657609416760891</v>
+        <v>-0.75879864038596101</v>
       </c>
       <c r="B3">
-        <v>0.015464237401499206</v>
+        <v>0.00020585205250449814</v>
       </c>
       <c r="C3">
-        <v>37.284482848906073</v>
+        <v>-3686.1358978647067</v>
       </c>
       <c r="D3">
-        <v>0.035666394876231765</v>
+        <v>0.0032890757264607078</v>
       </c>
       <c r="E3">
-        <v>16.16580807139108</v>
+        <v>-230.70269689487668</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>43294.265971418732</v>
+        <v>43295.657426997815</v>
       </c>
       <c r="B4">
-        <v>-86582.531942837464</v>
+        <v>-86585.314853995631</v>
       </c>
       <c r="C4">
-        <v>-86570.105830620698</v>
+        <v>-86572.895200338957</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -147,183 +271,183 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.15447970751230453</v>
+        <v>43295.998260434055</v>
       </c>
       <c r="B5">
-        <v>0.13499674242564211</v>
+        <v>-86583.99652086811</v>
       </c>
       <c r="C5">
-        <v>1.1443217424108874</v>
+        <v>-86567.436982659201</v>
       </c>
       <c r="D5">
-        <v>0.23641573997045923</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.65342395363188244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1.8623012060620416</v>
+        <v>0.87135702412446314</v>
       </c>
       <c r="B6">
-        <v>4.4651760887962118</v>
+        <v>2.7660488165758195</v>
       </c>
       <c r="C6">
-        <v>0.41707228763829296</v>
+        <v>0.31501867172508691</v>
       </c>
       <c r="D6">
-        <v>6.7483991784982553</v>
+        <v>49.991869946090404</v>
       </c>
       <c r="E6">
-        <v>0.27596192175408124</v>
+        <v>0.017429974615154546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.045357365066267349</v>
+        <v>2.1376402299045538</v>
       </c>
       <c r="B7">
-        <v>3.9548952935029602</v>
+        <v>2.4019163469576781</v>
       </c>
       <c r="C7">
-        <v>0.011468663946876094</v>
+        <v>0.88997280551095692</v>
       </c>
       <c r="D7">
-        <v>5.1552018877706001</v>
+        <v>41.241372932562641</v>
       </c>
       <c r="E7">
-        <v>0.0087983683381762639</v>
+        <v>0.051832421617000857</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.0024932208657717373</v>
+        <v>0.22408614345633054</v>
       </c>
       <c r="B8">
-        <v>0.32847286252482366</v>
+        <v>0.14308287123256111</v>
       </c>
       <c r="C8">
-        <v>0.0075903404823383768</v>
+        <v>1.5661283669105996</v>
       </c>
       <c r="D8">
-        <v>0.82220054093004669</v>
+        <v>8.0678742687147817</v>
       </c>
       <c r="E8">
-        <v>0.0030323756086945482</v>
+        <v>0.027775115971412832</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1.2544563220644929</v>
+        <v>1.6851630154023491</v>
       </c>
       <c r="B9">
-        <v>0.44497218247170467</v>
+        <v>0.2238061193904663</v>
       </c>
       <c r="C9">
-        <v>2.8191792014869659</v>
+        <v>7.5295663049423025</v>
       </c>
       <c r="D9">
-        <v>0.90940454410396299</v>
+        <v>7.7812338615542673</v>
       </c>
       <c r="E9">
-        <v>1.3794260543315293</v>
+        <v>0.2165675836744155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.11232573040717965</v>
+        <v>-0.800021503986311</v>
       </c>
       <c r="B10">
-        <v>0.74557888562570451</v>
+        <v>0.38328924796267522</v>
       </c>
       <c r="C10">
-        <v>0.15065572882058439</v>
+        <v>-2.0872526642443598</v>
       </c>
       <c r="D10">
-        <v>1.6386168734568547</v>
+        <v>14.093777493763771</v>
       </c>
       <c r="E10">
-        <v>0.068549111282013922</v>
+        <v>-0.056764164493181855</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.00023622422124232309</v>
+        <v>0.10017786504845357</v>
       </c>
       <c r="B11">
-        <v>1.5327994899812585</v>
+        <v>0.5427262769897776</v>
       </c>
       <c r="C11">
-        <v>0.00015411293048199761</v>
+        <v>0.18458266956243294</v>
       </c>
       <c r="D11">
-        <v>2.1498897044558731</v>
+        <v>24.333644465879914</v>
       </c>
       <c r="E11">
-        <v>0.00010987736754714602</v>
+        <v>0.0041168459245355012</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.14094956092781821</v>
+        <v>-0.6314042388959451</v>
       </c>
       <c r="B12">
-        <v>0.15723669003956831</v>
+        <v>0.055827137902948715</v>
       </c>
       <c r="C12">
-        <v>0.89641648455171963</v>
+        <v>-11.309987626333163</v>
       </c>
       <c r="D12">
-        <v>0.20269844875980964</v>
+        <v>1.6113884684861663</v>
       </c>
       <c r="E12">
-        <v>0.69536576027199093</v>
+        <v>-0.39183862317763984</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1.0936097157194591</v>
+        <v>-5.6002716896563012</v>
       </c>
       <c r="B13">
-        <v>10.121103521252619</v>
+        <v>4.3036463945288874</v>
       </c>
       <c r="C13">
-        <v>0.1080524187331018</v>
+        <v>-1.3012852767773346</v>
       </c>
       <c r="D13">
-        <v>31.839514523283885</v>
+        <v>276.59255328091808</v>
       </c>
       <c r="E13">
-        <v>0.034347562520770043</v>
+        <v>-0.020247369725707867</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.00040630181832735718</v>
+        <v>-0.012931450061845639</v>
       </c>
       <c r="B14">
-        <v>1.5328908527689717</v>
+        <v>0.54453274323150958</v>
       </c>
       <c r="C14">
-        <v>0.00026505593506114591</v>
+        <v>-0.023747791519577725</v>
       </c>
       <c r="D14">
-        <v>2.1732307228738996</v>
+        <v>24.409795138387349</v>
       </c>
       <c r="E14">
-        <v>0.00018695751631472431</v>
+        <v>-0.00052976479272082763</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>43304.250718961011</v>
+        <v>43282.185332778958</v>
       </c>
       <c r="B15">
-        <v>-86580.501437922023</v>
+        <v>-86536.370665557915</v>
       </c>
       <c r="C15">
-        <v>-86522.543054190857</v>
+        <v>-86478.41228182675</v>
       </c>
       <c r="D15">
         <v>0</v>

--- a/Outputs/PARX_22/0112_rerun_the_results.xlsx
+++ b/Outputs/PARX_22/0112_rerun_the_results.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -106,11 +106,31 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -182,6 +202,26 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,90 +234,90 @@
   <dimension ref="A1:E15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.42578125" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.42578125" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.40677278717031251</v>
+        <v>0.31347545170646796</v>
       </c>
       <c r="B1">
-        <v>0.0038024078916069821</v>
+        <v>0.47411650372529263</v>
       </c>
       <c r="C1">
-        <v>106.97768329067961</v>
+        <v>0.66117810547278155</v>
       </c>
       <c r="D1">
-        <v>0.029507841587683572</v>
+        <v>1.2998801126195803</v>
       </c>
       <c r="E1">
-        <v>13.785243694004969</v>
+        <v>0.24115720262443074</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.64476633381687765</v>
+        <v>0.55656686185629778</v>
       </c>
       <c r="B2">
-        <v>0.00098261510997802045</v>
+        <v>0.032039430964887622</v>
       </c>
       <c r="C2">
-        <v>656.17384392888084</v>
+        <v>17.371309199162923</v>
       </c>
       <c r="D2">
-        <v>0.029260962752999463</v>
+        <v>0.25921702844919214</v>
       </c>
       <c r="E2">
-        <v>22.035034843506111</v>
+        <v>2.1471076386688375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.75879864038596101</v>
+        <v>0.38960517413776191</v>
       </c>
       <c r="B3">
-        <v>0.00020585205250449814</v>
+        <v>0.039865588219507496</v>
       </c>
       <c r="C3">
-        <v>-3686.1358978647067</v>
+        <v>9.7729694089178327</v>
       </c>
       <c r="D3">
-        <v>0.0032890757264607078</v>
+        <v>0.28208811676296364</v>
       </c>
       <c r="E3">
-        <v>-230.70269689487668</v>
+        <v>1.3811470635792289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>43295.657426997815</v>
+        <v>8.5346352660757514</v>
       </c>
       <c r="B4">
-        <v>-86585.314853995631</v>
+        <v>4.5286156612856239</v>
       </c>
       <c r="C4">
-        <v>-86572.895200338957</v>
+        <v>1.8846013670439992</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>10.584406896138464</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.80634043549378887</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>43295.998260434055</v>
+        <v>4144.1489370581412</v>
       </c>
       <c r="B5">
-        <v>-86583.99652086811</v>
+        <v>-8280.2978741162824</v>
       </c>
       <c r="C5">
-        <v>-86567.436982659201</v>
+        <v>-8272.2685413753534</v>
       </c>
       <c r="D5">
         <v>0</v>

--- a/Outputs/PARX_22/0112_rerun_the_results.xlsx
+++ b/Outputs/PARX_22/0112_rerun_the_results.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="91">
+  <borders count="151">
     <border>
       <left/>
       <right/>
@@ -126,11 +126,71 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -222,6 +282,66 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,88 +356,88 @@
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.31347545170646796</v>
+        <v>0.21730856522326158</v>
       </c>
       <c r="B1">
-        <v>0.47411650372529263</v>
+        <v>0.072267898181905571</v>
       </c>
       <c r="C1">
-        <v>0.66117810547278155</v>
+        <v>3.0069860988107617</v>
       </c>
       <c r="D1">
-        <v>1.2998801126195803</v>
+        <v>0.10820155912459829</v>
       </c>
       <c r="E1">
-        <v>0.24115720262443074</v>
+        <v>2.0083681508971818</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.55656686185629778</v>
+        <v>0.43054959903685669</v>
       </c>
       <c r="B2">
-        <v>0.032039430964887622</v>
+        <v>0.017982577354568919</v>
       </c>
       <c r="C2">
-        <v>17.371309199162923</v>
+        <v>23.942596800645205</v>
       </c>
       <c r="D2">
-        <v>0.25921702844919214</v>
+        <v>0.043326389932063912</v>
       </c>
       <c r="E2">
-        <v>2.1471076386688375</v>
+        <v>9.9373522629501672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.38960517413776191</v>
+        <v>0.54546386522669998</v>
       </c>
       <c r="B3">
-        <v>0.039865588219507496</v>
+        <v>0.019188508894452172</v>
       </c>
       <c r="C3">
-        <v>9.7729694089178327</v>
+        <v>28.4265894878578</v>
       </c>
       <c r="D3">
-        <v>0.28208811676296364</v>
+        <v>0.042724602079158201</v>
       </c>
       <c r="E3">
-        <v>1.3811470635792289</v>
+        <v>12.766973562821939</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>8.5346352660757514</v>
+        <v>1.299121446638829</v>
       </c>
       <c r="B4">
-        <v>4.5286156612856239</v>
+        <v>0.31994720855194436</v>
       </c>
       <c r="C4">
-        <v>1.8846013670439992</v>
+        <v>4.0604243822552775</v>
       </c>
       <c r="D4">
-        <v>10.584406896138464</v>
+        <v>0.53397078385301633</v>
       </c>
       <c r="E4">
-        <v>0.80634043549378887</v>
+        <v>2.4329448088239078</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4144.1489370581412</v>
+        <v>34996.918109510647</v>
       </c>
       <c r="B5">
-        <v>-8280.2978741162824</v>
+        <v>-69985.836219021294</v>
       </c>
       <c r="C5">
-        <v>-8272.2685413753534</v>
+        <v>-69970.688629495824</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -328,166 +448,118 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.87135702412446314</v>
+        <v>37506.901460056972</v>
       </c>
       <c r="B6">
-        <v>2.7660488165758195</v>
+        <v>-75003.802920113943</v>
       </c>
       <c r="C6">
-        <v>0.31501867172508691</v>
+        <v>-74986.096602388148</v>
       </c>
       <c r="D6">
-        <v>49.991869946090404</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.017429974615154546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2.1376402299045538</v>
+        <v>0.54298091532731863</v>
       </c>
       <c r="B7">
-        <v>2.4019163469576781</v>
+        <v>65535</v>
       </c>
       <c r="C7">
-        <v>0.88997280551095692</v>
-      </c>
-      <c r="D7">
-        <v>41.241372932562641</v>
-      </c>
-      <c r="E7">
-        <v>0.051832421617000857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.22408614345633054</v>
+        <v>0.0009465825184394169</v>
       </c>
       <c r="B8">
-        <v>0.14308287123256111</v>
+        <v>65535</v>
       </c>
       <c r="C8">
-        <v>1.5661283669105996</v>
-      </c>
-      <c r="D8">
-        <v>8.0678742687147817</v>
-      </c>
-      <c r="E8">
-        <v>0.027775115971412832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1.6851630154023491</v>
+        <v>0.00059620496588550398</v>
       </c>
       <c r="B9">
-        <v>0.2238061193904663</v>
+        <v>65535</v>
       </c>
       <c r="C9">
-        <v>7.5295663049423025</v>
-      </c>
-      <c r="D9">
-        <v>7.7812338615542673</v>
-      </c>
-      <c r="E9">
-        <v>0.2165675836744155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.800021503986311</v>
+        <v>3.5815967952409708e-05</v>
       </c>
       <c r="B10">
-        <v>0.38328924796267522</v>
+        <v>65535</v>
       </c>
       <c r="C10">
-        <v>-2.0872526642443598</v>
-      </c>
-      <c r="D10">
-        <v>14.093777493763771</v>
-      </c>
-      <c r="E10">
-        <v>-0.056764164493181855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.10017786504845357</v>
+        <v>1.4691814599233866</v>
       </c>
       <c r="B11">
-        <v>0.5427262769897776</v>
+        <v>65535</v>
       </c>
       <c r="C11">
-        <v>0.18458266956243294</v>
-      </c>
-      <c r="D11">
-        <v>24.333644465879914</v>
-      </c>
-      <c r="E11">
-        <v>0.0041168459245355012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-0.6314042388959451</v>
+        <v>0.06386719255327189</v>
       </c>
       <c r="B12">
-        <v>0.055827137902948715</v>
+        <v>65535</v>
       </c>
       <c r="C12">
-        <v>-11.309987626333163</v>
-      </c>
-      <c r="D12">
-        <v>1.6113884684861663</v>
-      </c>
-      <c r="E12">
-        <v>-0.39183862317763984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-5.6002716896563012</v>
+        <v>0.14812551397062737</v>
       </c>
       <c r="B13">
-        <v>4.3036463945288874</v>
+        <v>65535</v>
       </c>
       <c r="C13">
-        <v>-1.3012852767773346</v>
-      </c>
-      <c r="D13">
-        <v>276.59255328091808</v>
-      </c>
-      <c r="E13">
-        <v>-0.020247369725707867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-0.012931450061845639</v>
+        <v>1.518456646563724e-16</v>
       </c>
       <c r="B14">
-        <v>0.54453274323150958</v>
+        <v>65535</v>
       </c>
       <c r="C14">
-        <v>-0.023747791519577725</v>
-      </c>
-      <c r="D14">
-        <v>24.409795138387349</v>
-      </c>
-      <c r="E14">
-        <v>-0.00052976479272082763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>43282.185332778958</v>
+        <v>670.31459512948436</v>
       </c>
       <c r="B15">
-        <v>-86536.370665557915</v>
+        <v>-1312.6291902589687</v>
       </c>
       <c r="C15">
-        <v>-86478.41228182675</v>
+        <v>-1291.6780843984379</v>
       </c>
       <c r="D15">
         <v>0</v>

--- a/Outputs/PARX_22/0112_rerun_the_results.xlsx
+++ b/Outputs/PARX_22/0112_rerun_the_results.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="151">
+  <borders count="181">
     <border>
       <left/>
       <right/>
@@ -186,11 +186,41 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -342,6 +372,36 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,90 +414,90 @@
   <dimension ref="A1:E15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
     <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.21730856522326158</v>
+        <v>0.064461230311511658</v>
       </c>
       <c r="B1">
-        <v>0.072267898181905571</v>
+        <v>0.070121887924240581</v>
       </c>
       <c r="C1">
-        <v>3.0069860988107617</v>
+        <v>0.91927402726457286</v>
       </c>
       <c r="D1">
-        <v>0.10820155912459829</v>
+        <v>0.10150711762090245</v>
       </c>
       <c r="E1">
-        <v>2.0083681508971818</v>
+        <v>0.63504148105411018</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.43054959903685669</v>
+        <v>0.43538066351035465</v>
       </c>
       <c r="B2">
-        <v>0.017982577354568919</v>
+        <v>0.015864713642884984</v>
       </c>
       <c r="C2">
-        <v>23.942596800645205</v>
+        <v>27.443335777170766</v>
       </c>
       <c r="D2">
-        <v>0.043326389932063912</v>
+        <v>0.03875819480506356</v>
       </c>
       <c r="E2">
-        <v>9.9373522629501672</v>
+        <v>11.233254430453361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.54546386522669998</v>
+        <v>0.54483309910011946</v>
       </c>
       <c r="B3">
-        <v>0.019188508894452172</v>
+        <v>0.016925322319086621</v>
       </c>
       <c r="C3">
-        <v>28.4265894878578</v>
+        <v>32.190412024574165</v>
       </c>
       <c r="D3">
-        <v>0.042724602079158201</v>
+        <v>0.039917344911009102</v>
       </c>
       <c r="E3">
-        <v>12.766973562821939</v>
+        <v>13.649031525387247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.299121446638829</v>
+        <v>2.0196174712759638</v>
       </c>
       <c r="B4">
-        <v>0.31994720855194436</v>
+        <v>0.35196796240426231</v>
       </c>
       <c r="C4">
-        <v>4.0604243822552775</v>
+        <v>5.7380718900667373</v>
       </c>
       <c r="D4">
-        <v>0.53397078385301633</v>
+        <v>0.66392514169018224</v>
       </c>
       <c r="E4">
-        <v>2.4329448088239078</v>
+        <v>3.0419355202222622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>34996.918109510647</v>
+        <v>43305.788857788233</v>
       </c>
       <c r="B5">
-        <v>-69985.836219021294</v>
+        <v>-86603.577715576466</v>
       </c>
       <c r="C5">
-        <v>-69970.688629495824</v>
+        <v>-86587.018177367558</v>
       </c>
       <c r="D5">
         <v>0</v>
